--- a/biology/Zoologie/Erythrolamprus_perfuscus/Erythrolamprus_perfuscus.xlsx
+++ b/biology/Zoologie/Erythrolamprus_perfuscus/Erythrolamprus_perfuscus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erythrolamprus perfuscus  est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erythrolamprus perfuscus  est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la Barbade[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la Barbade.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cope, 1863 "1862"  : Synopsis of the species of Holcosus and Ameiva, with diagnoses of new West Indian and South American Colubridae. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 14, p. 60-82 (texte intégral).</t>
         </is>
